--- a/LF/TAS/Senegal/TAS2/Mai 2024/sn_lf_itas_2406_2_fts.xlsx
+++ b/LF/TAS/Senegal/TAS2/Mai 2024/sn_lf_itas_2406_2_fts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\LF\TAS\Senegal\TAS2\Mai 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20ACF1D3-CEA8-4319-94E8-D4EB1BA24285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236AA0D2-45E6-4510-9DF0-D4D2E2B96B8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
     <t>sn_lf_f_2406</t>
   </si>
   <si>
-    <t>sn_lf_itas_20306_2_fts</t>
+    <t>sn_lf_tas2_20306_2_fts</t>
   </si>
 </sst>
 </file>
